--- a/data/financial_statements/sofp/PFG.xlsx
+++ b/data/financial_statements/sofp/PFG.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -122,9 +239,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -177,12 +291,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -487,129 +598,129 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
         <v>4239600000</v>
@@ -730,8 +841,8 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
         <v>27229600000</v>
@@ -852,8 +963,8 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
         <v>31469200000</v>
@@ -974,23 +1085,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>1006000000</v>
+        <v>1006100000</v>
       </c>
       <c r="C5">
-        <v>993000000</v>
+        <v>993300000</v>
       </c>
       <c r="D5">
-        <v>1020000000</v>
+        <v>1020200000</v>
       </c>
       <c r="E5">
         <v>1038000000</v>
       </c>
       <c r="F5">
-        <v>1065000000</v>
+        <v>1065400000</v>
       </c>
       <c r="G5">
         <v>1030700000</v>
@@ -1096,8 +1207,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>94605400000</v>
@@ -1218,23 +1329,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>3073000000</v>
+        <v>3072900000</v>
       </c>
       <c r="C7">
-        <v>3135000000</v>
+        <v>3134500000</v>
       </c>
       <c r="D7">
-        <v>3262000000</v>
+        <v>3262300000</v>
       </c>
       <c r="E7">
-        <v>3228000000</v>
+        <v>3228200000</v>
       </c>
       <c r="F7">
-        <v>3278000000</v>
+        <v>3277800000</v>
       </c>
       <c r="G7">
         <v>3377100000</v>
@@ -1340,8 +1451,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>4834000000</v>
@@ -1462,8 +1573,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>147593000000</v>
@@ -1584,8 +1695,8 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
         <v>251111400000</v>
@@ -1706,23 +1817,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>259688000000</v>
+        <v>282580600000</v>
       </c>
       <c r="C11">
-        <v>269619000000</v>
+        <v>293220200000</v>
       </c>
       <c r="D11">
-        <v>291539000000</v>
+        <v>291538500000</v>
       </c>
       <c r="E11">
-        <v>304657000000</v>
+        <v>304657200000</v>
       </c>
       <c r="F11">
-        <v>298908000000</v>
+        <v>298908400000</v>
       </c>
       <c r="G11">
         <v>302165500000</v>
@@ -1828,14 +1939,14 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>43577000000</v>
+        <v>64246700000</v>
       </c>
       <c r="C12">
-        <v>43311700000</v>
+        <v>65842500000</v>
       </c>
       <c r="D12">
         <v>43770300000</v>
@@ -1950,8 +2061,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>66500000</v>
@@ -2072,8 +2183,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>44625900000</v>
@@ -2194,14 +2305,14 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
-        <v>88269400000</v>
+        <v>108939100000</v>
       </c>
       <c r="C15">
-        <v>88197500000</v>
+        <v>110728300000</v>
       </c>
       <c r="D15">
         <v>89020800000</v>
@@ -2316,23 +2427,23 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>3981000000</v>
       </c>
       <c r="C16">
-        <v>4281000000</v>
+        <v>4280700000</v>
       </c>
       <c r="D16">
-        <v>4280000000</v>
+        <v>4280400000</v>
       </c>
       <c r="E16">
-        <v>4195000000</v>
+        <v>4280200000</v>
       </c>
       <c r="F16">
-        <v>4280000000</v>
+        <v>4279700000</v>
       </c>
       <c r="G16">
         <v>4279500000</v>
@@ -2438,23 +2549,23 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>1079000000</v>
+        <v>1097800000</v>
       </c>
       <c r="C17">
-        <v>1422000000</v>
+        <v>1444100000</v>
       </c>
       <c r="D17">
-        <v>1374000000</v>
+        <v>1408600000</v>
       </c>
       <c r="E17">
-        <v>2320000000</v>
+        <v>2335700000</v>
       </c>
       <c r="F17">
-        <v>2346000000</v>
+        <v>2353800000</v>
       </c>
       <c r="G17">
         <v>2331500000</v>
@@ -2560,8 +2671,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>255100000</v>
@@ -2682,23 +2793,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>179508000000</v>
+        <v>158819300000</v>
       </c>
       <c r="C19">
-        <v>187973000000</v>
+        <v>165420000000</v>
       </c>
       <c r="D19">
-        <v>184604000000</v>
+        <v>184569200000</v>
       </c>
       <c r="E19">
-        <v>192597000000</v>
+        <v>192886100000</v>
       </c>
       <c r="F19">
-        <v>187060000000</v>
+        <v>187051400000</v>
       </c>
       <c r="G19">
         <v>190626400000</v>
@@ -2804,14 +2915,14 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>184822900000</v>
+        <v>164153200000</v>
       </c>
       <c r="C20">
-        <v>193944100000</v>
+        <v>171413300000</v>
       </c>
       <c r="D20">
         <v>190565000000</v>
@@ -2926,23 +3037,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>249944000000</v>
+        <v>273092300000</v>
       </c>
       <c r="C21">
-        <v>258272000000</v>
+        <v>282141600000</v>
       </c>
       <c r="D21">
-        <v>279279000000</v>
+        <v>279585800000</v>
       </c>
       <c r="E21">
-        <v>288199000000</v>
+        <v>288531400000</v>
       </c>
       <c r="F21">
-        <v>282436000000</v>
+        <v>282779200000</v>
       </c>
       <c r="G21">
         <v>285874000000</v>
@@ -3048,8 +3159,8 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
         <v>10637500000</v>
@@ -3170,8 +3281,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="AF23">
         <v>100000</v>
@@ -3202,23 +3313,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>5000000</v>
+        <v>4900000</v>
       </c>
       <c r="C24">
-        <v>5000000</v>
+        <v>4900000</v>
       </c>
       <c r="D24">
-        <v>5000000</v>
+        <v>4900000</v>
       </c>
       <c r="E24">
-        <v>5000000</v>
+        <v>4800000</v>
       </c>
       <c r="F24">
-        <v>5000000</v>
+        <v>4800000</v>
       </c>
       <c r="G24">
         <v>4800000</v>
@@ -3324,23 +3435,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>17211000000</v>
+        <v>17210900000</v>
       </c>
       <c r="C25">
-        <v>15986000000</v>
+        <v>15985600000</v>
       </c>
       <c r="D25">
-        <v>13091000000</v>
+        <v>13090800000</v>
       </c>
       <c r="E25">
-        <v>12885000000</v>
+        <v>12884500000</v>
       </c>
       <c r="F25">
-        <v>12584000000</v>
+        <v>12583900000</v>
       </c>
       <c r="G25">
         <v>12395000000</v>
@@ -3446,8 +3557,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>10336500000</v>
@@ -3568,23 +3679,23 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>9446000000</v>
+        <v>9488301000</v>
       </c>
       <c r="C27">
-        <v>11037000000</v>
+        <v>11078600000</v>
       </c>
       <c r="D27">
-        <v>11898000000</v>
+        <v>11952700000</v>
       </c>
       <c r="E27">
-        <v>16069000000</v>
+        <v>16125800000</v>
       </c>
       <c r="F27">
-        <v>16071000000</v>
+        <v>16129200000</v>
       </c>
       <c r="G27">
         <v>16291500000</v>
@@ -3690,23 +3801,23 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>9446000000</v>
+        <v>9488300000</v>
       </c>
       <c r="C28">
-        <v>11037000000</v>
+        <v>11078600000</v>
       </c>
       <c r="D28">
-        <v>11898000000</v>
+        <v>11952700000</v>
       </c>
       <c r="E28">
-        <v>16069000000</v>
+        <v>16125800000</v>
       </c>
       <c r="F28">
-        <v>16071000000</v>
+        <v>16129200000</v>
       </c>
       <c r="G28">
         <v>16291500000</v>
@@ -3812,8 +3923,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>282580600000</v>
@@ -3934,8 +4045,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>244900000</v>
@@ -4056,8 +4167,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="AF31">
         <v>13000000</v>
@@ -4088,8 +4199,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>6415381000</v>
@@ -4210,23 +4321,23 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>-192100000</v>
       </c>
       <c r="C33">
-        <v>1174800000</v>
+        <v>1174500000</v>
       </c>
       <c r="D33">
-        <v>1818200000</v>
+        <v>1818600000</v>
       </c>
       <c r="E33">
-        <v>1942800000</v>
+        <v>2028000000</v>
       </c>
       <c r="F33">
-        <v>1208900000</v>
+        <v>1208600000</v>
       </c>
       <c r="G33">
         <v>1944800000</v>
@@ -4332,23 +4443,23 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>4047500000</v>
       </c>
       <c r="C34">
-        <v>4347900000</v>
+        <v>4347600000</v>
       </c>
       <c r="D34">
-        <v>4559400000</v>
+        <v>4559800000</v>
       </c>
       <c r="E34">
-        <v>4274800000</v>
+        <v>4360000000</v>
       </c>
       <c r="F34">
-        <v>4354300000</v>
+        <v>4354000000</v>
       </c>
       <c r="G34">
         <v>4362200000</v>
